--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vcam1-Itgb7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vcam1-Itgb7.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.91119833333333</v>
+        <v>22.95531766666667</v>
       </c>
       <c r="H2">
-        <v>71.73359499999999</v>
+        <v>68.865953</v>
       </c>
       <c r="I2">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="J2">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.570106666666667</v>
+        <v>1.620350333333333</v>
       </c>
       <c r="N2">
-        <v>4.710319999999999</v>
+        <v>4.861051</v>
       </c>
       <c r="O2">
-        <v>0.04895814174088396</v>
+        <v>0.0725197794467048</v>
       </c>
       <c r="P2">
-        <v>0.04895814174088396</v>
+        <v>0.07251977944670479</v>
       </c>
       <c r="Q2">
-        <v>37.54313191115555</v>
+        <v>37.1956566329559</v>
       </c>
       <c r="R2">
-        <v>337.8881872004</v>
+        <v>334.760909696603</v>
       </c>
       <c r="S2">
-        <v>0.009690577669408618</v>
+        <v>0.01247355396169189</v>
       </c>
       <c r="T2">
-        <v>0.009690577669408619</v>
+        <v>0.01247355396169188</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.91119833333333</v>
+        <v>22.95531766666667</v>
       </c>
       <c r="H3">
-        <v>71.73359499999999</v>
+        <v>68.865953</v>
       </c>
       <c r="I3">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="J3">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>6.512536</v>
       </c>
       <c r="O3">
-        <v>0.06769002118340356</v>
+        <v>0.09715752300453648</v>
       </c>
       <c r="P3">
-        <v>0.06769002118340356</v>
+        <v>0.09715752300453648</v>
       </c>
       <c r="Q3">
-        <v>51.90751331632444</v>
+        <v>49.83244423186756</v>
       </c>
       <c r="R3">
-        <v>467.1676198469199</v>
+        <v>448.491998086808</v>
       </c>
       <c r="S3">
-        <v>0.01339829054773768</v>
+        <v>0.01671129745881313</v>
       </c>
       <c r="T3">
-        <v>0.01339829054773768</v>
+        <v>0.01671129745881313</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.91119833333333</v>
+        <v>22.95531766666667</v>
       </c>
       <c r="H4">
-        <v>71.73359499999999</v>
+        <v>68.865953</v>
       </c>
       <c r="I4">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="J4">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.02192266666667</v>
+        <v>13.65106133333333</v>
       </c>
       <c r="N4">
-        <v>36.06576800000001</v>
+        <v>40.953184</v>
       </c>
       <c r="O4">
-        <v>0.3748605151535007</v>
+        <v>0.6109616770777183</v>
       </c>
       <c r="P4">
-        <v>0.3748605151535007</v>
+        <v>0.6109616770777183</v>
       </c>
       <c r="Q4">
-        <v>287.4585772306622</v>
+        <v>313.3644493938169</v>
       </c>
       <c r="R4">
-        <v>2587.12719507596</v>
+        <v>2820.280044544352</v>
       </c>
       <c r="S4">
-        <v>0.07419838270242192</v>
+        <v>0.1050866881518208</v>
       </c>
       <c r="T4">
-        <v>0.07419838270242192</v>
+        <v>0.1050866881518208</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.91119833333333</v>
+        <v>22.95531766666667</v>
       </c>
       <c r="H5">
-        <v>71.73359499999999</v>
+        <v>68.865953</v>
       </c>
       <c r="I5">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="J5">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4449116666666666</v>
+        <v>0.6533493333333333</v>
       </c>
       <c r="N5">
-        <v>1.334735</v>
+        <v>1.960048</v>
       </c>
       <c r="O5">
-        <v>0.01387297366559358</v>
+        <v>0.02924105274043717</v>
       </c>
       <c r="P5">
-        <v>0.01387297366559358</v>
+        <v>0.02924105274043717</v>
       </c>
       <c r="Q5">
-        <v>10.63837110248055</v>
+        <v>14.99784149397156</v>
       </c>
       <c r="R5">
-        <v>95.74533992232499</v>
+        <v>134.980573445744</v>
       </c>
       <c r="S5">
-        <v>0.002745960611079101</v>
+        <v>0.005029522318425842</v>
       </c>
       <c r="T5">
-        <v>0.002745960611079102</v>
+        <v>0.005029522318425842</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.91119833333333</v>
+        <v>22.95531766666667</v>
       </c>
       <c r="H6">
-        <v>71.73359499999999</v>
+        <v>68.865953</v>
       </c>
       <c r="I6">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="J6">
-        <v>0.1979359780585016</v>
+        <v>0.1720020945576478</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.862603</v>
+        <v>4.247957666666667</v>
       </c>
       <c r="N6">
-        <v>47.587809</v>
+        <v>12.743873</v>
       </c>
       <c r="O6">
-        <v>0.4946183482566181</v>
+        <v>0.1901199677306032</v>
       </c>
       <c r="P6">
-        <v>0.4946183482566181</v>
+        <v>0.1901199677306032</v>
       </c>
       <c r="Q6">
-        <v>379.2938464159283</v>
+        <v>97.51321767288547</v>
       </c>
       <c r="R6">
-        <v>3413.644617743355</v>
+        <v>877.6189590559691</v>
       </c>
       <c r="S6">
-        <v>0.09790276652785426</v>
+        <v>0.03270103266689617</v>
       </c>
       <c r="T6">
-        <v>0.09790276652785428</v>
+        <v>0.03270103266689616</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>186.642341</v>
       </c>
       <c r="I7">
-        <v>0.5150060346614912</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="J7">
-        <v>0.5150060346614913</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.570106666666667</v>
+        <v>1.620350333333333</v>
       </c>
       <c r="N7">
-        <v>4.710319999999999</v>
+        <v>4.861051</v>
       </c>
       <c r="O7">
-        <v>0.04895814174088396</v>
+        <v>0.0725197794467048</v>
       </c>
       <c r="P7">
-        <v>0.04895814174088396</v>
+        <v>0.07251977944670479</v>
       </c>
       <c r="Q7">
-        <v>97.6827946287911</v>
+        <v>100.8086598178212</v>
       </c>
       <c r="R7">
-        <v>879.1451516591198</v>
+        <v>907.2779383603909</v>
       </c>
       <c r="S7">
-        <v>0.02521373844236788</v>
+        <v>0.03380615834939506</v>
       </c>
       <c r="T7">
-        <v>0.02521373844236788</v>
+        <v>0.03380615834939505</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>186.642341</v>
       </c>
       <c r="I8">
-        <v>0.5150060346614912</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="J8">
-        <v>0.5150060346614913</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>6.512536</v>
       </c>
       <c r="O8">
-        <v>0.06769002118340356</v>
+        <v>0.09715752300453648</v>
       </c>
       <c r="P8">
-        <v>0.06769002118340356</v>
+        <v>0.09715752300453648</v>
       </c>
       <c r="Q8">
         <v>135.0572183207529</v>
@@ -948,10 +948,10 @@
         <v>1215.514964886776</v>
       </c>
       <c r="S8">
-        <v>0.034860769395817</v>
+        <v>0.04529140370511148</v>
       </c>
       <c r="T8">
-        <v>0.03486076939581701</v>
+        <v>0.04529140370511148</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>186.642341</v>
       </c>
       <c r="I9">
-        <v>0.5150060346614912</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="J9">
-        <v>0.5150060346614913</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.02192266666667</v>
+        <v>13.65106133333333</v>
       </c>
       <c r="N9">
-        <v>36.06576800000001</v>
+        <v>40.953184</v>
       </c>
       <c r="O9">
-        <v>0.3748605151535007</v>
+        <v>0.6109616770777183</v>
       </c>
       <c r="P9">
-        <v>0.3748605151535007</v>
+        <v>0.6109616770777183</v>
       </c>
       <c r="Q9">
-        <v>747.9332632758765</v>
+        <v>849.2886814626381</v>
       </c>
       <c r="R9">
-        <v>6731.399369482889</v>
+        <v>7643.598133163743</v>
       </c>
       <c r="S9">
-        <v>0.1930554274603682</v>
+        <v>0.2848087426393823</v>
       </c>
       <c r="T9">
-        <v>0.1930554274603682</v>
+        <v>0.2848087426393823</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>186.642341</v>
       </c>
       <c r="I10">
-        <v>0.5150060346614912</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="J10">
-        <v>0.5150060346614913</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4449116666666666</v>
+        <v>0.6533493333333333</v>
       </c>
       <c r="N10">
-        <v>1.334735</v>
+        <v>1.960048</v>
       </c>
       <c r="O10">
-        <v>0.01387297366559358</v>
+        <v>0.02924105274043717</v>
       </c>
       <c r="P10">
-        <v>0.01387297366559358</v>
+        <v>0.02924105274043717</v>
       </c>
       <c r="Q10">
-        <v>27.67978500162611</v>
+        <v>40.64754968804089</v>
       </c>
       <c r="R10">
-        <v>249.118065014635</v>
+        <v>365.827947192368</v>
       </c>
       <c r="S10">
-        <v>0.007144665156480642</v>
+        <v>0.01363114541699214</v>
       </c>
       <c r="T10">
-        <v>0.007144665156480643</v>
+        <v>0.01363114541699214</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>186.642341</v>
       </c>
       <c r="I11">
-        <v>0.5150060346614912</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="J11">
-        <v>0.5150060346614913</v>
+        <v>0.4661646602805707</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.862603</v>
+        <v>4.247957666666667</v>
       </c>
       <c r="N11">
-        <v>47.587809</v>
+        <v>12.743873</v>
       </c>
       <c r="O11">
-        <v>0.4946183482566181</v>
+        <v>0.1901199677306032</v>
       </c>
       <c r="P11">
-        <v>0.4946183482566181</v>
+        <v>0.1901199677306032</v>
       </c>
       <c r="Q11">
-        <v>986.8777860912076</v>
+        <v>264.2829211251881</v>
       </c>
       <c r="R11">
-        <v>8881.900074820869</v>
+        <v>2378.546290126693</v>
       </c>
       <c r="S11">
-        <v>0.2547314342064574</v>
+        <v>0.08862721016968969</v>
       </c>
       <c r="T11">
-        <v>0.2547314342064574</v>
+        <v>0.08862721016968969</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.608769666666667</v>
+        <v>7.783044333333334</v>
       </c>
       <c r="H12">
-        <v>4.826309</v>
+        <v>23.349133</v>
       </c>
       <c r="I12">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698088</v>
       </c>
       <c r="J12">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698089</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.570106666666667</v>
+        <v>1.620350333333333</v>
       </c>
       <c r="N12">
-        <v>4.710319999999999</v>
+        <v>4.861051</v>
       </c>
       <c r="O12">
-        <v>0.04895814174088396</v>
+        <v>0.0725197794467048</v>
       </c>
       <c r="P12">
-        <v>0.04895814174088396</v>
+        <v>0.07251977944670479</v>
       </c>
       <c r="Q12">
-        <v>2.525939978764444</v>
+        <v>12.61125847986478</v>
       </c>
       <c r="R12">
-        <v>22.73345980888</v>
+        <v>113.501326318783</v>
       </c>
       <c r="S12">
-        <v>0.0006519918905648858</v>
+        <v>0.004229182313562418</v>
       </c>
       <c r="T12">
-        <v>0.0006519918905648859</v>
+        <v>0.004229182313562418</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.608769666666667</v>
+        <v>7.783044333333334</v>
       </c>
       <c r="H13">
-        <v>4.826309</v>
+        <v>23.349133</v>
       </c>
       <c r="I13">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698088</v>
       </c>
       <c r="J13">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698089</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>6.512536</v>
       </c>
       <c r="O13">
-        <v>0.06769002118340356</v>
+        <v>0.09715752300453648</v>
       </c>
       <c r="P13">
-        <v>0.06769002118340356</v>
+        <v>0.09715752300453648</v>
       </c>
       <c r="Q13">
-        <v>3.492390123291556</v>
+        <v>16.89578547014311</v>
       </c>
       <c r="R13">
-        <v>31.431511109624</v>
+        <v>152.062069231288</v>
       </c>
       <c r="S13">
-        <v>0.0009014505721504865</v>
+        <v>0.005665997346589972</v>
       </c>
       <c r="T13">
-        <v>0.0009014505721504867</v>
+        <v>0.005665997346589973</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.608769666666667</v>
+        <v>7.783044333333334</v>
       </c>
       <c r="H14">
-        <v>4.826309</v>
+        <v>23.349133</v>
       </c>
       <c r="I14">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698088</v>
       </c>
       <c r="J14">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698089</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.02192266666667</v>
+        <v>13.65106133333333</v>
       </c>
       <c r="N14">
-        <v>36.06576800000001</v>
+        <v>40.953184</v>
       </c>
       <c r="O14">
-        <v>0.3748605151535007</v>
+        <v>0.6109616770777183</v>
       </c>
       <c r="P14">
-        <v>0.3748605151535007</v>
+        <v>0.6109616770777183</v>
       </c>
       <c r="Q14">
-        <v>19.34050452114578</v>
+        <v>106.2468155543858</v>
       </c>
       <c r="R14">
-        <v>174.064540690312</v>
+        <v>956.2213399894721</v>
       </c>
       <c r="S14">
-        <v>0.004992142415588445</v>
+        <v>0.03562984248815068</v>
       </c>
       <c r="T14">
-        <v>0.004992142415588446</v>
+        <v>0.03562984248815069</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.608769666666667</v>
+        <v>7.783044333333334</v>
       </c>
       <c r="H15">
-        <v>4.826309</v>
+        <v>23.349133</v>
       </c>
       <c r="I15">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698088</v>
       </c>
       <c r="J15">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698089</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.4449116666666666</v>
+        <v>0.6533493333333333</v>
       </c>
       <c r="N15">
-        <v>1.334735</v>
+        <v>1.960048</v>
       </c>
       <c r="O15">
-        <v>0.01387297366559358</v>
+        <v>0.02924105274043717</v>
       </c>
       <c r="P15">
-        <v>0.01387297366559358</v>
+        <v>0.02924105274043717</v>
       </c>
       <c r="Q15">
-        <v>0.7157603936794444</v>
+        <v>5.085046826487111</v>
       </c>
       <c r="R15">
-        <v>6.441843543115001</v>
+        <v>45.765421438384</v>
       </c>
       <c r="S15">
-        <v>0.0001847510139551289</v>
+        <v>0.00170526915585403</v>
       </c>
       <c r="T15">
-        <v>0.000184751013955129</v>
+        <v>0.00170526915585403</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.608769666666667</v>
+        <v>7.783044333333334</v>
       </c>
       <c r="H16">
-        <v>4.826309</v>
+        <v>23.349133</v>
       </c>
       <c r="I16">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698088</v>
       </c>
       <c r="J16">
-        <v>0.01331733328473986</v>
+        <v>0.05831763893698089</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.862603</v>
+        <v>4.247957666666667</v>
       </c>
       <c r="N16">
-        <v>47.587809</v>
+        <v>12.743873</v>
       </c>
       <c r="O16">
-        <v>0.4946183482566181</v>
+        <v>0.1901199677306032</v>
       </c>
       <c r="P16">
-        <v>0.4946183482566181</v>
+        <v>0.1901199677306032</v>
       </c>
       <c r="Q16">
-        <v>25.51927454077567</v>
+        <v>33.0620428457899</v>
       </c>
       <c r="R16">
-        <v>229.673470866981</v>
+        <v>297.558385612109</v>
       </c>
       <c r="S16">
-        <v>0.006586997392480912</v>
+        <v>0.01108734763282377</v>
       </c>
       <c r="T16">
-        <v>0.006586997392480914</v>
+        <v>0.01108734763282377</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>26.045992</v>
+        <v>30.44016466666666</v>
       </c>
       <c r="H17">
-        <v>78.13797599999999</v>
+        <v>91.320494</v>
       </c>
       <c r="I17">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="J17">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.570106666666667</v>
+        <v>1.620350333333333</v>
       </c>
       <c r="N17">
-        <v>4.710319999999999</v>
+        <v>4.861051</v>
       </c>
       <c r="O17">
-        <v>0.04895814174088396</v>
+        <v>0.0725197794467048</v>
       </c>
       <c r="P17">
-        <v>0.04895814174088396</v>
+        <v>0.07251977944670479</v>
       </c>
       <c r="Q17">
-        <v>40.89498567914666</v>
+        <v>49.32373096435489</v>
       </c>
       <c r="R17">
-        <v>368.0548711123199</v>
+        <v>443.913578679194</v>
       </c>
       <c r="S17">
-        <v>0.01055575320543166</v>
+        <v>0.01654070059434682</v>
       </c>
       <c r="T17">
-        <v>0.01055575320543166</v>
+        <v>0.01654070059434681</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>26.045992</v>
+        <v>30.44016466666666</v>
       </c>
       <c r="H18">
-        <v>78.13797599999999</v>
+        <v>91.320494</v>
       </c>
       <c r="I18">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="J18">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>6.512536</v>
       </c>
       <c r="O18">
-        <v>0.06769002118340356</v>
+        <v>0.09715752300453648</v>
       </c>
       <c r="P18">
-        <v>0.06769002118340356</v>
+        <v>0.09715752300453648</v>
       </c>
       <c r="Q18">
-        <v>56.54182018523733</v>
+        <v>66.08088941253155</v>
       </c>
       <c r="R18">
-        <v>508.8763816671359</v>
+        <v>594.728004712784</v>
       </c>
       <c r="S18">
-        <v>0.01459449098097138</v>
+        <v>0.0221602094044899</v>
       </c>
       <c r="T18">
-        <v>0.01459449098097138</v>
+        <v>0.0221602094044899</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>26.045992</v>
+        <v>30.44016466666666</v>
       </c>
       <c r="H19">
-        <v>78.13797599999999</v>
+        <v>91.320494</v>
       </c>
       <c r="I19">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="J19">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.02192266666667</v>
+        <v>13.65106133333333</v>
       </c>
       <c r="N19">
-        <v>36.06576800000001</v>
+        <v>40.953184</v>
       </c>
       <c r="O19">
-        <v>0.3748605151535007</v>
+        <v>0.6109616770777183</v>
       </c>
       <c r="P19">
-        <v>0.3748605151535007</v>
+        <v>0.6109616770777183</v>
       </c>
       <c r="Q19">
-        <v>313.1229016006187</v>
+        <v>415.5405548614328</v>
       </c>
       <c r="R19">
-        <v>2818.106114405568</v>
+        <v>3739.864993752896</v>
       </c>
       <c r="S19">
-        <v>0.08082282014223126</v>
+        <v>0.1393514190509819</v>
       </c>
       <c r="T19">
-        <v>0.08082282014223126</v>
+        <v>0.1393514190509819</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>26.045992</v>
+        <v>30.44016466666666</v>
       </c>
       <c r="H20">
-        <v>78.13797599999999</v>
+        <v>91.320494</v>
       </c>
       <c r="I20">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="J20">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4449116666666666</v>
+        <v>0.6533493333333333</v>
       </c>
       <c r="N20">
-        <v>1.334735</v>
+        <v>1.960048</v>
       </c>
       <c r="O20">
-        <v>0.01387297366559358</v>
+        <v>0.02924105274043717</v>
       </c>
       <c r="P20">
-        <v>0.01387297366559358</v>
+        <v>0.02924105274043717</v>
       </c>
       <c r="Q20">
-        <v>11.58816571070667</v>
+        <v>19.88806129152355</v>
       </c>
       <c r="R20">
-        <v>104.29349139636</v>
+        <v>178.992551623712</v>
       </c>
       <c r="S20">
-        <v>0.002991120190274085</v>
+        <v>0.006669456279835016</v>
       </c>
       <c r="T20">
-        <v>0.002991120190274086</v>
+        <v>0.006669456279835016</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>26.045992</v>
+        <v>30.44016466666666</v>
       </c>
       <c r="H21">
-        <v>78.13797599999999</v>
+        <v>91.320494</v>
       </c>
       <c r="I21">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="J21">
-        <v>0.2156077177377173</v>
+        <v>0.2280853681650076</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>15.862603</v>
+        <v>4.247957666666667</v>
       </c>
       <c r="N21">
-        <v>47.587809</v>
+        <v>12.743873</v>
       </c>
       <c r="O21">
-        <v>0.4946183482566181</v>
+        <v>0.1901199677306032</v>
       </c>
       <c r="P21">
-        <v>0.4946183482566181</v>
+        <v>0.1901199677306032</v>
       </c>
       <c r="Q21">
-        <v>413.157230837176</v>
+        <v>129.3085308703625</v>
       </c>
       <c r="R21">
-        <v>3718.415077534584</v>
+        <v>1163.776777833262</v>
       </c>
       <c r="S21">
-        <v>0.1066435332188088</v>
+        <v>0.04336358283535399</v>
       </c>
       <c r="T21">
-        <v>0.1066435332188089</v>
+        <v>0.04336358283535399</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.022615000000001</v>
+        <v>10.06688366666667</v>
       </c>
       <c r="H22">
-        <v>21.067845</v>
+        <v>30.200651</v>
       </c>
       <c r="I22">
-        <v>0.05813293625755009</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="J22">
-        <v>0.0581329362575501</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.570106666666667</v>
+        <v>1.620350333333333</v>
       </c>
       <c r="N22">
-        <v>4.710319999999999</v>
+        <v>4.861051</v>
       </c>
       <c r="O22">
-        <v>0.04895814174088396</v>
+        <v>0.0725197794467048</v>
       </c>
       <c r="P22">
-        <v>0.04895814174088396</v>
+        <v>0.07251977944670479</v>
       </c>
       <c r="Q22">
-        <v>11.02625462893333</v>
+        <v>16.31187830491123</v>
       </c>
       <c r="R22">
-        <v>99.2362916604</v>
+        <v>146.806904744201</v>
       </c>
       <c r="S22">
-        <v>0.002846080533110909</v>
+        <v>0.005470184227708633</v>
       </c>
       <c r="T22">
-        <v>0.00284608053311091</v>
+        <v>0.005470184227708632</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.022615000000001</v>
+        <v>10.06688366666667</v>
       </c>
       <c r="H23">
-        <v>21.067845</v>
+        <v>30.200651</v>
       </c>
       <c r="I23">
-        <v>0.05813293625755009</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="J23">
-        <v>0.0581329362575501</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>6.512536</v>
       </c>
       <c r="O23">
-        <v>0.06769002118340356</v>
+        <v>0.09715752300453648</v>
       </c>
       <c r="P23">
-        <v>0.06769002118340356</v>
+        <v>0.09715752300453648</v>
       </c>
       <c r="Q23">
-        <v>15.24501100054667</v>
+        <v>21.85364742899289</v>
       </c>
       <c r="R23">
-        <v>137.20509900492</v>
+        <v>196.682826860936</v>
       </c>
       <c r="S23">
-        <v>0.003935019686727014</v>
+        <v>0.00732861508953201</v>
       </c>
       <c r="T23">
-        <v>0.003935019686727015</v>
+        <v>0.00732861508953201</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.022615000000001</v>
+        <v>10.06688366666667</v>
       </c>
       <c r="H24">
-        <v>21.067845</v>
+        <v>30.200651</v>
       </c>
       <c r="I24">
-        <v>0.05813293625755009</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="J24">
-        <v>0.0581329362575501</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>12.02192266666667</v>
+        <v>13.65106133333333</v>
       </c>
       <c r="N24">
-        <v>36.06576800000001</v>
+        <v>40.953184</v>
       </c>
       <c r="O24">
-        <v>0.3748605151535007</v>
+        <v>0.6109616770777183</v>
       </c>
       <c r="P24">
-        <v>0.3748605151535007</v>
+        <v>0.6109616770777183</v>
       </c>
       <c r="Q24">
-        <v>84.42533444777335</v>
+        <v>137.4236463691982</v>
       </c>
       <c r="R24">
-        <v>759.8280100299602</v>
+        <v>1236.812817322784</v>
       </c>
       <c r="S24">
-        <v>0.02179174243289084</v>
+        <v>0.04608498474738272</v>
       </c>
       <c r="T24">
-        <v>0.02179174243289084</v>
+        <v>0.04608498474738272</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>7.022615000000001</v>
+        <v>10.06688366666667</v>
       </c>
       <c r="H25">
-        <v>21.067845</v>
+        <v>30.200651</v>
       </c>
       <c r="I25">
-        <v>0.05813293625755009</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="J25">
-        <v>0.0581329362575501</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4449116666666666</v>
+        <v>0.6533493333333333</v>
       </c>
       <c r="N25">
-        <v>1.334735</v>
+        <v>1.960048</v>
       </c>
       <c r="O25">
-        <v>0.01387297366559358</v>
+        <v>0.02924105274043717</v>
       </c>
       <c r="P25">
-        <v>0.01387297366559358</v>
+        <v>0.02924105274043717</v>
       </c>
       <c r="Q25">
-        <v>3.124443344008334</v>
+        <v>6.577191732360889</v>
       </c>
       <c r="R25">
-        <v>28.119990096075</v>
+        <v>59.194725591248</v>
       </c>
       <c r="S25">
-        <v>0.0008064766938046226</v>
+        <v>0.002205659569330141</v>
       </c>
       <c r="T25">
-        <v>0.0008064766938046227</v>
+        <v>0.002205659569330141</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.022615000000001</v>
+        <v>10.06688366666667</v>
       </c>
       <c r="H26">
-        <v>21.067845</v>
+        <v>30.200651</v>
       </c>
       <c r="I26">
-        <v>0.05813293625755009</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="J26">
-        <v>0.0581329362575501</v>
+        <v>0.07543023805979308</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>15.862603</v>
+        <v>4.247957666666667</v>
       </c>
       <c r="N26">
-        <v>47.587809</v>
+        <v>12.743873</v>
       </c>
       <c r="O26">
-        <v>0.4946183482566181</v>
+        <v>0.1901199677306032</v>
       </c>
       <c r="P26">
-        <v>0.4946183482566181</v>
+        <v>0.1901199677306032</v>
       </c>
       <c r="Q26">
-        <v>111.396953766845</v>
+        <v>42.76369565125812</v>
       </c>
       <c r="R26">
-        <v>1002.572583901605</v>
+        <v>384.873260861323</v>
       </c>
       <c r="S26">
-        <v>0.02875361691101669</v>
+        <v>0.01434079442583958</v>
       </c>
       <c r="T26">
-        <v>0.0287536169110167</v>
+        <v>0.01434079442583958</v>
       </c>
     </row>
   </sheetData>
